--- a/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoThang/08.2021/Báo cáo giá dịch vụ giao dịch 08.2021 - HOSE.xlsx
+++ b/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoThang/08.2021/Báo cáo giá dịch vụ giao dịch 08.2021 - HOSE.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\DataAnalytics\reporting_tool\trading_service\output\GiaoDichLuuKy\BaoCaoThang\08.2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="08.2021" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Bảng Kê Giá Dịch Vụ Giao Dịch 08.2021 - HOSE</t>
   </si>
@@ -121,22 +116,17 @@
   </si>
   <si>
     <t>Tổng</t>
-  </si>
-  <si>
-    <t>Kết quả xuất ra từ BC tự động</t>
-  </si>
-  <si>
-    <t>Kết quả từ BC cũ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,29 +142,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,49 +174,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,37 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -326,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,10 +276,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,519 +485,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>361500</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>18253497000</v>
       </c>
-      <c r="G4" s="4">
-        <v>4928444.1900000004</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="9">
-        <v>361500</v>
-      </c>
-      <c r="K4" s="9">
-        <v>18253497000</v>
-      </c>
-      <c r="L4" s="9">
-        <v>4928444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="G4" s="5">
+        <v>4928444.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>42207300</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>1323974621100</v>
       </c>
-      <c r="G5" s="4">
-        <v>357438881.81699997</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="9">
-        <v>39080600</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1179947441000</v>
-      </c>
-      <c r="L5" s="9">
-        <v>318551543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="G5" s="5">
+        <v>357438881.817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>22462610</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>642612228000</v>
       </c>
-      <c r="G6" s="4">
-        <v>173361194.09999999</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="9">
-        <v>22139700</v>
-      </c>
-      <c r="K6" s="9">
-        <v>629016021000</v>
-      </c>
-      <c r="L6" s="9">
-        <v>169690218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="5">
+        <v>173361194.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>47522500</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>2452528447000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>662136837.12</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9">
-        <v>46542700</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2409350007000</v>
-      </c>
-      <c r="L7" s="9">
-        <v>650478658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>23516220</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>486140027600</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>131217795.072</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="9">
-        <v>23234100</v>
-      </c>
-      <c r="K8" s="9">
-        <v>479386310000</v>
-      </c>
-      <c r="L8" s="9">
-        <v>129394291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>1688100</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>38159048000</v>
       </c>
-      <c r="G9" s="4">
-        <v>10302942.960000001</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1688000</v>
-      </c>
-      <c r="K9" s="9">
-        <v>38153948000</v>
-      </c>
-      <c r="L9" s="9">
-        <v>10301566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="G9" s="5">
+        <v>10302942.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>19608340</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1425734845000</v>
       </c>
-      <c r="G10" s="4">
-        <v>384661392.83999997</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9">
-        <v>19521900</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1423620847000</v>
-      </c>
-      <c r="L10" s="9">
-        <v>384090613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="G10" s="5">
+        <v>384661392.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>31652500</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>851880125000</v>
       </c>
-      <c r="G11" s="4">
-        <v>229995109.71000001</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="9">
-        <v>30974400</v>
-      </c>
-      <c r="K11" s="9">
-        <v>833091425000</v>
-      </c>
-      <c r="L11" s="9">
-        <v>224922161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="G11" s="5">
+        <v>229995109.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>12246100</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>506873515000</v>
       </c>
-      <c r="G12" s="4">
-        <v>136840933.34999999</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="9">
-        <v>12246100</v>
-      </c>
-      <c r="K12" s="9">
-        <v>506873515000</v>
-      </c>
-      <c r="L12" s="9">
-        <v>136840933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="G12" s="5">
+        <v>136840933.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>25590350</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>853656894000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>230484050.28</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="9">
-        <v>24781400</v>
-      </c>
-      <c r="K13" s="9">
-        <v>828799547000</v>
-      </c>
-      <c r="L13" s="9">
-        <v>223772567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>43111250</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>978466686000</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>264136272.12</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9">
-        <v>42558640</v>
-      </c>
-      <c r="K14" s="9">
-        <v>958928374000</v>
-      </c>
-      <c r="L14" s="9">
-        <v>258860928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>12874100</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>379889838000</v>
       </c>
-      <c r="G15" s="4">
-        <v>102570256.26000001</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="9">
-        <v>12650100</v>
-      </c>
-      <c r="K15" s="9">
-        <v>371419528000</v>
-      </c>
-      <c r="L15" s="9">
-        <v>100283273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="G15" s="5">
+        <v>102570256.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6">
         <v>282840870</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>9958169771700</v>
       </c>
-      <c r="G16" s="5">
-        <v>2688074109.8189998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+      <c r="G16" s="6">
+        <v>2688074109.819</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
